--- a/biology/Biologie cellulaire et moléculaire/Cassure_chromosomique/Cassure_chromosomique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cassure_chromosomique/Cassure_chromosomique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cassure chromosomique est un remaniement de la structure d'un chromosome intervenant au cours de la division cellulaire (méiose ou mitose), et aboutissant généralement à une aberration de structure.
 Les principaux mécanismes de formation de ces remaniements de structure sont :
@@ -519,14 +531,51 @@
           <t>Délétion et microdélétion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La délétion est la perte d'un fragment de chromosome, pouvant aller d'une seule paire de bases à une fraction importante du chromosome. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La délétion est la perte d'un fragment de chromosome, pouvant aller d'une seule paire de bases à une fraction importante du chromosome. 
 Pour un caryotype humain, cette perte de matériel génétique n'est visible qu'à partir d'un minimum de 4 millions de paires de bases. En dessous de cette taille il s'agit d'une microdélétion qui ne peut être mise en évidence qu'en employant certaines techniques comme l'hybridation fluorescente in situ ou l'hybridation génomique comparative.
 Une délétion est dite interstitielle si elle a lieu à l'intérieur d'un chromosome, et terminale si elle a lieu en bout de chromosome.
 Si une microdélétion a lieu lors de la méiose ou dans les premières mitoses d'un zygote, elle peut être à l'origine de maladie génétique. Dans le deuxième cas, la maladie génétique s'exprimera sous forme de mosaïque.
-Syndromes consécutifs à une délétion
-Syndrome d'Angelman
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cassure_chromosomique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassure_chromosomique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Délétion et microdélétion</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Syndromes consécutifs à une délétion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Syndrome d'Angelman
 Syndrome de Williams
 Syndrome de Prader-Willi
 Syndrome de Di George
@@ -535,37 +584,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cassure_chromosomique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassure_chromosomique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Inversion péricentrique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une cassure a lieu de part et d'autre du centromère suivi d'une rotation du fragment à 180° puis réparation. Cette inversion change l'index centromérique et peut donc être visualisée sur un caryotype.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -587,10 +605,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Inversion péricentrique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une cassure a lieu de part et d'autre du centromère suivi d'une rotation du fragment à 180° puis réparation. Cette inversion change l'index centromérique et peut donc être visualisée sur un caryotype.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cassure_chromosomique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassure_chromosomique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Inversion paracentrique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La cassure a lieu sur un même bras (bras p ou bras q) du chromosome, puis comme pour l'inversion péricentrique, rotation et réparation.
 Cette inversion conserve l'index centromérique et est donc difficile à mettre en évidence.
